--- a/GameDesign/数值_经济.xlsx
+++ b/GameDesign/数值_经济.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D08C3E-8DCD-4DCC-BBCD-D132726A3CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C953C6-9FDC-47BF-8766-78D8A7A0CC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3435" uniqueCount="1039">
   <si>
     <t>前往洛兰郊外开启冒险</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3732,6 +3732,22 @@
   <si>
     <t>领主降临券</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物技能袋子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级宠物技能袋子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4002,7 +4018,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4139,6 +4155,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13832,15 +13851,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96CDBE6-C5DD-4CBF-9BF9-D5F0435978D1}">
-  <dimension ref="B2:F93"/>
+  <dimension ref="B2:M93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="10" width="9" style="20"/>
+    <col min="11" max="11" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="20"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>993</v>
       </c>
@@ -13851,7 +13875,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>800</v>
       </c>
@@ -13867,8 +13891,13 @@
       <c r="F3" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="K3" s="40"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="12" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="40" t="s">
         <v>912</v>
       </c>
@@ -13884,8 +13913,24 @@
       <c r="F4" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H4" s="40"/>
+      <c r="I4" s="12">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L4" s="12">
+        <v>50000</v>
+      </c>
+      <c r="M4" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="40" t="s">
         <v>801</v>
       </c>
@@ -13901,8 +13946,23 @@
       <c r="F5" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I5" s="12">
+        <v>2</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L5" s="12">
+        <v>100000</v>
+      </c>
+      <c r="M5" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="40" t="s">
         <v>802</v>
       </c>
@@ -13918,8 +13978,23 @@
       <c r="F6" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I6" s="12">
+        <v>3</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L6" s="12">
+        <v>200000</v>
+      </c>
+      <c r="M6" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="40" t="s">
         <v>803</v>
       </c>
@@ -13935,8 +14010,23 @@
       <c r="F7" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I7" s="12">
+        <v>4</v>
+      </c>
+      <c r="J7" s="40">
+        <v>1000027</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>805</v>
+      </c>
+      <c r="L7" s="12">
+        <v>10</v>
+      </c>
+      <c r="M7" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="40" t="s">
         <v>805</v>
       </c>
@@ -13952,8 +14042,23 @@
       <c r="F8" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I8" s="12">
+        <v>5</v>
+      </c>
+      <c r="J8" s="40">
+        <v>1000027</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>805</v>
+      </c>
+      <c r="L8" s="12">
+        <v>20</v>
+      </c>
+      <c r="M8" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="40" t="s">
         <v>806</v>
       </c>
@@ -13969,8 +14074,23 @@
       <c r="F9" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I9" s="12">
+        <v>6</v>
+      </c>
+      <c r="J9" s="40">
+        <v>1000020</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>801</v>
+      </c>
+      <c r="L9" s="48">
+        <v>1</v>
+      </c>
+      <c r="M9" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="31" t="s">
         <v>942</v>
       </c>
@@ -13986,8 +14106,23 @@
       <c r="F10" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I10" s="12">
+        <v>7</v>
+      </c>
+      <c r="J10" s="31">
+        <v>1000034</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>942</v>
+      </c>
+      <c r="L10" s="48">
+        <v>1</v>
+      </c>
+      <c r="M10" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
         <v>943</v>
       </c>
@@ -14003,8 +14138,23 @@
       <c r="F11" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I11" s="12">
+        <v>8</v>
+      </c>
+      <c r="J11" s="31">
+        <v>1000035</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>943</v>
+      </c>
+      <c r="L11" s="48">
+        <v>1</v>
+      </c>
+      <c r="M11" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
         <v>945</v>
       </c>
@@ -14020,8 +14170,23 @@
       <c r="F12" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I12" s="12">
+        <v>9</v>
+      </c>
+      <c r="J12" s="40">
+        <v>1000023</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>802</v>
+      </c>
+      <c r="L12" s="48">
+        <v>3</v>
+      </c>
+      <c r="M12" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
         <v>946</v>
       </c>
@@ -14037,8 +14202,23 @@
       <c r="F13" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I13" s="12">
+        <v>10</v>
+      </c>
+      <c r="J13" s="40">
+        <v>1000025</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>803</v>
+      </c>
+      <c r="L13" s="48">
+        <v>3</v>
+      </c>
+      <c r="M13" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="s">
         <v>947</v>
       </c>
@@ -14054,8 +14234,23 @@
       <c r="F14" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I14" s="12">
+        <v>11</v>
+      </c>
+      <c r="J14" s="40">
+        <v>1000025</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>803</v>
+      </c>
+      <c r="L14" s="48">
+        <v>5</v>
+      </c>
+      <c r="M14" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="40" t="s">
         <v>948</v>
       </c>
@@ -14071,8 +14266,23 @@
       <c r="F15" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I15" s="12">
+        <v>12</v>
+      </c>
+      <c r="J15" s="40">
+        <v>1000025</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>803</v>
+      </c>
+      <c r="L15" s="48">
+        <v>10</v>
+      </c>
+      <c r="M15" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="40" t="s">
         <v>949</v>
       </c>
@@ -14088,8 +14298,23 @@
       <c r="F16" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I16" s="12">
+        <v>13</v>
+      </c>
+      <c r="J16" s="40">
+        <v>1000028</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>806</v>
+      </c>
+      <c r="L16" s="48">
+        <v>3</v>
+      </c>
+      <c r="M16" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="40" t="s">
         <v>950</v>
       </c>
@@ -14105,8 +14330,23 @@
       <c r="F17" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I17" s="12">
+        <v>14</v>
+      </c>
+      <c r="J17" s="40">
+        <v>1000028</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>806</v>
+      </c>
+      <c r="L17" s="48">
+        <v>5</v>
+      </c>
+      <c r="M17" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="40" t="s">
         <v>951</v>
       </c>
@@ -14122,8 +14362,23 @@
       <c r="F18" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I18" s="12">
+        <v>15</v>
+      </c>
+      <c r="J18" s="40">
+        <v>1000028</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>806</v>
+      </c>
+      <c r="L18" s="48">
+        <v>10</v>
+      </c>
+      <c r="M18" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="40" t="s">
         <v>952</v>
       </c>
@@ -14139,8 +14394,23 @@
       <c r="F19" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I19" s="12">
+        <v>16</v>
+      </c>
+      <c r="J19" s="40">
+        <v>1000001</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>800</v>
+      </c>
+      <c r="L19" s="48">
+        <v>3</v>
+      </c>
+      <c r="M19" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="40" t="s">
         <v>953</v>
       </c>
@@ -14156,8 +14426,23 @@
       <c r="F20" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I20" s="12">
+        <v>17</v>
+      </c>
+      <c r="J20" s="40">
+        <v>1000001</v>
+      </c>
+      <c r="K20" s="40" t="s">
+        <v>800</v>
+      </c>
+      <c r="L20" s="48">
+        <v>5</v>
+      </c>
+      <c r="M20" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="40" t="s">
         <v>954</v>
       </c>
@@ -14173,8 +14458,23 @@
       <c r="F21" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I21" s="12">
+        <v>18</v>
+      </c>
+      <c r="J21" s="40">
+        <v>1000001</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>800</v>
+      </c>
+      <c r="L21" s="48">
+        <v>10</v>
+      </c>
+      <c r="M21" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="40" t="s">
         <v>955</v>
       </c>
@@ -14190,8 +14490,23 @@
       <c r="F22" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I22" s="12">
+        <v>19</v>
+      </c>
+      <c r="J22" s="40">
+        <v>1010071</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L22" s="48">
+        <v>1</v>
+      </c>
+      <c r="M22" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="40" t="s">
         <v>956</v>
       </c>
@@ -14207,8 +14522,23 @@
       <c r="F23" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I23" s="12">
+        <v>20</v>
+      </c>
+      <c r="J23" s="40">
+        <v>1010072</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L23" s="48">
+        <v>1</v>
+      </c>
+      <c r="M23" s="48">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="40" t="s">
         <v>957</v>
       </c>
@@ -14225,7 +14555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="40" t="s">
         <v>958</v>
       </c>
@@ -14242,7 +14572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="40" t="s">
         <v>959</v>
       </c>
@@ -14259,7 +14589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="40" t="s">
         <v>960</v>
       </c>
@@ -14276,7 +14606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="40" t="s">
         <v>961</v>
       </c>
@@ -14293,7 +14623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="40" t="s">
         <v>962</v>
       </c>
@@ -14310,7 +14640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="40" t="s">
         <v>963</v>
       </c>
@@ -14327,7 +14657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="40" t="s">
         <v>964</v>
       </c>
@@ -14344,7 +14674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="40" t="s">
         <v>965</v>
       </c>
@@ -27004,8 +27334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595187B0-A714-4663-8ADE-0625B750C627}">
   <dimension ref="B2:AN102"/>
   <sheetViews>
-    <sheetView topLeftCell="P73" workbookViewId="0">
-      <selection activeCell="T99" sqref="T99"/>
+    <sheetView topLeftCell="P76" workbookViewId="0">
+      <selection activeCell="T83" sqref="T83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36231,8 +36561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A568FF-B20C-40E0-B68A-A0A312733434}">
   <dimension ref="A1:AO80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -39404,7 +39734,7 @@
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="U59" s="20" t="str">
-        <f t="shared" ref="U59:U62" si="20">C59&amp;";"&amp;E59&amp;"@"&amp;F59&amp;";"&amp;H59</f>
+        <f t="shared" ref="U59" si="20">C59&amp;";"&amp;E59&amp;"@"&amp;F59&amp;";"&amp;H59</f>
         <v>1;60000@1000018;3</v>
       </c>
     </row>

--- a/GameDesign/数值_经济.xlsx
+++ b/GameDesign/数值_经济.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C953C6-9FDC-47BF-8766-78D8A7A0CC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CDC4CE-9D0A-4622-A820-918C0787ADBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3435" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="1039">
   <si>
     <t>前往洛兰郊外开启冒险</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4018,7 +4018,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4155,9 +4155,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13851,10 +13848,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96CDBE6-C5DD-4CBF-9BF9-D5F0435978D1}">
-  <dimension ref="B2:M93"/>
+  <dimension ref="B2:S93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="R4" sqref="R4:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13864,7 +13861,7 @@
     <col min="12" max="13" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>993</v>
       </c>
@@ -13875,7 +13872,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>800</v>
       </c>
@@ -13897,7 +13894,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" s="40" t="s">
         <v>912</v>
       </c>
@@ -13926,11 +13923,26 @@
       <c r="L4" s="12">
         <v>50000</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="12">
         <v>50000</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="R4" s="12">
+        <v>100000</v>
+      </c>
+      <c r="S4" s="12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="40" t="s">
         <v>801</v>
       </c>
@@ -13958,11 +13970,26 @@
       <c r="L5" s="12">
         <v>100000</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="12">
         <v>50000</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O5" s="12">
+        <v>2</v>
+      </c>
+      <c r="P5" s="40">
+        <v>1000027</v>
+      </c>
+      <c r="Q5" s="40" t="s">
+        <v>805</v>
+      </c>
+      <c r="R5" s="12">
+        <v>20</v>
+      </c>
+      <c r="S5" s="12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="40" t="s">
         <v>802</v>
       </c>
@@ -13990,11 +14017,26 @@
       <c r="L6" s="12">
         <v>200000</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="12">
         <v>50000</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O6" s="12">
+        <v>3</v>
+      </c>
+      <c r="P6" s="40">
+        <v>1000020</v>
+      </c>
+      <c r="Q6" s="40" t="s">
+        <v>801</v>
+      </c>
+      <c r="R6" s="12">
+        <v>1</v>
+      </c>
+      <c r="S6" s="12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="40" t="s">
         <v>803</v>
       </c>
@@ -14022,11 +14064,26 @@
       <c r="L7" s="12">
         <v>10</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="12">
         <v>50000</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O7" s="12">
+        <v>4</v>
+      </c>
+      <c r="P7" s="31">
+        <v>1000034</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>942</v>
+      </c>
+      <c r="R7" s="12">
+        <v>1</v>
+      </c>
+      <c r="S7" s="12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="40" t="s">
         <v>805</v>
       </c>
@@ -14054,11 +14111,26 @@
       <c r="L8" s="12">
         <v>20</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="12">
         <v>50000</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O8" s="12">
+        <v>5</v>
+      </c>
+      <c r="P8" s="31">
+        <v>1000035</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>943</v>
+      </c>
+      <c r="R8" s="12">
+        <v>1</v>
+      </c>
+      <c r="S8" s="12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="40" t="s">
         <v>806</v>
       </c>
@@ -14083,14 +14155,29 @@
       <c r="K9" s="40" t="s">
         <v>801</v>
       </c>
-      <c r="L9" s="48">
-        <v>1</v>
-      </c>
-      <c r="M9" s="48">
+      <c r="L9" s="12">
+        <v>1</v>
+      </c>
+      <c r="M9" s="12">
         <v>50000</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O9" s="12">
+        <v>6</v>
+      </c>
+      <c r="P9" s="40">
+        <v>1000025</v>
+      </c>
+      <c r="Q9" s="40" t="s">
+        <v>803</v>
+      </c>
+      <c r="R9" s="12">
+        <v>10</v>
+      </c>
+      <c r="S9" s="12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="31" t="s">
         <v>942</v>
       </c>
@@ -14115,14 +14202,29 @@
       <c r="K10" s="31" t="s">
         <v>942</v>
       </c>
-      <c r="L10" s="48">
-        <v>1</v>
-      </c>
-      <c r="M10" s="48">
+      <c r="L10" s="12">
+        <v>1</v>
+      </c>
+      <c r="M10" s="12">
         <v>50000</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O10" s="12">
+        <v>7</v>
+      </c>
+      <c r="P10" s="40">
+        <v>1000028</v>
+      </c>
+      <c r="Q10" s="40" t="s">
+        <v>806</v>
+      </c>
+      <c r="R10" s="12">
+        <v>10</v>
+      </c>
+      <c r="S10" s="12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
         <v>943</v>
       </c>
@@ -14147,14 +14249,29 @@
       <c r="K11" s="31" t="s">
         <v>943</v>
       </c>
-      <c r="L11" s="48">
-        <v>1</v>
-      </c>
-      <c r="M11" s="48">
+      <c r="L11" s="12">
+        <v>1</v>
+      </c>
+      <c r="M11" s="12">
         <v>50000</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O11" s="12">
+        <v>8</v>
+      </c>
+      <c r="P11" s="40">
+        <v>1000001</v>
+      </c>
+      <c r="Q11" s="40" t="s">
+        <v>800</v>
+      </c>
+      <c r="R11" s="12">
+        <v>10</v>
+      </c>
+      <c r="S11" s="12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
         <v>945</v>
       </c>
@@ -14179,14 +14296,29 @@
       <c r="K12" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="L12" s="48">
+      <c r="L12" s="12">
         <v>3</v>
       </c>
-      <c r="M12" s="48">
+      <c r="M12" s="12">
         <v>50000</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O12" s="12">
+        <v>9</v>
+      </c>
+      <c r="P12" s="40">
+        <v>1010071</v>
+      </c>
+      <c r="Q12" s="40" t="s">
+        <v>1036</v>
+      </c>
+      <c r="R12" s="12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" s="40" t="s">
         <v>946</v>
       </c>
@@ -14211,14 +14343,29 @@
       <c r="K13" s="40" t="s">
         <v>803</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="12">
         <v>3</v>
       </c>
-      <c r="M13" s="48">
+      <c r="M13" s="12">
         <v>50000</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O13" s="12">
+        <v>10</v>
+      </c>
+      <c r="P13" s="40">
+        <v>1010072</v>
+      </c>
+      <c r="Q13" s="40" t="s">
+        <v>1037</v>
+      </c>
+      <c r="R13" s="12">
+        <v>1</v>
+      </c>
+      <c r="S13" s="12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="s">
         <v>947</v>
       </c>
@@ -14243,14 +14390,15 @@
       <c r="K14" s="40" t="s">
         <v>803</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="12">
         <v>5</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="12">
         <v>50000</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" s="40" t="s">
         <v>948</v>
       </c>
@@ -14275,14 +14423,14 @@
       <c r="K15" s="40" t="s">
         <v>803</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="12">
         <v>10</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="12">
         <v>50000</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="40" t="s">
         <v>949</v>
       </c>
@@ -14307,10 +14455,10 @@
       <c r="K16" s="40" t="s">
         <v>806</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="12">
         <v>3</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="12">
         <v>50000</v>
       </c>
     </row>
@@ -14339,10 +14487,10 @@
       <c r="K17" s="40" t="s">
         <v>806</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="12">
         <v>5</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="12">
         <v>50000</v>
       </c>
     </row>
@@ -14371,10 +14519,10 @@
       <c r="K18" s="40" t="s">
         <v>806</v>
       </c>
-      <c r="L18" s="48">
+      <c r="L18" s="12">
         <v>10</v>
       </c>
-      <c r="M18" s="48">
+      <c r="M18" s="12">
         <v>50000</v>
       </c>
     </row>
@@ -14403,10 +14551,10 @@
       <c r="K19" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="L19" s="48">
+      <c r="L19" s="12">
         <v>3</v>
       </c>
-      <c r="M19" s="48">
+      <c r="M19" s="12">
         <v>50000</v>
       </c>
     </row>
@@ -14435,10 +14583,10 @@
       <c r="K20" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="12">
         <v>5</v>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="12">
         <v>50000</v>
       </c>
     </row>
@@ -14467,10 +14615,10 @@
       <c r="K21" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="L21" s="48">
+      <c r="L21" s="12">
         <v>10</v>
       </c>
-      <c r="M21" s="48">
+      <c r="M21" s="12">
         <v>50000</v>
       </c>
     </row>
@@ -14499,10 +14647,10 @@
       <c r="K22" s="40" t="s">
         <v>1036</v>
       </c>
-      <c r="L22" s="48">
-        <v>1</v>
-      </c>
-      <c r="M22" s="48">
+      <c r="L22" s="12">
+        <v>1</v>
+      </c>
+      <c r="M22" s="12">
         <v>50000</v>
       </c>
     </row>
@@ -14531,10 +14679,10 @@
       <c r="K23" s="40" t="s">
         <v>1037</v>
       </c>
-      <c r="L23" s="48">
-        <v>1</v>
-      </c>
-      <c r="M23" s="48">
+      <c r="L23" s="12">
+        <v>1</v>
+      </c>
+      <c r="M23" s="12">
         <v>50000</v>
       </c>
     </row>
